--- a/BackTest/2020-01-23 BackTest ADA.xlsx
+++ b/BackTest/2020-01-23 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>96054.23979999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>96054.23979999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>129665.70119352</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>131986.00759352</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>56059.98499351996</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>58441.76419351996</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>29989.86999351996</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>18664.76589351996</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>20876.97679351996</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -2035,17 +2035,11 @@
         <v>-476400.0107064801</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>51.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2074,17 +2068,11 @@
         <v>-476427.1741064801</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>51.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2113,17 +2101,11 @@
         <v>-520192.6590064801</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>51.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2152,17 +2134,11 @@
         <v>-470512.2630064801</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2191,17 +2167,11 @@
         <v>-502562.2630064801</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>51.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2230,17 +2200,11 @@
         <v>-306359.4832064802</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>51.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2269,17 +2233,11 @@
         <v>-308697.1764064801</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>51.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2308,17 +2266,11 @@
         <v>-308697.1764064801</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>51.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2347,17 +2299,11 @@
         <v>-308685.4827064801</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>51.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2332,11 @@
         <v>-255856.9020064801</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>51.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2425,17 +2365,11 @@
         <v>-255741.4557064801</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>51.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2464,17 +2398,11 @@
         <v>-205350.7562064801</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>52.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2431,11 @@
         <v>-131546.9674064802</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>52.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2620,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2657,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2694,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2731,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2768,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2805,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2842,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2879,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2916,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2953,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2990,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3064,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3101,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3138,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3175,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3249,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3286,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3323,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3360,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3397,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3434,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3467,17 +3289,11 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>52.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3510,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3547,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3584,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3617,17 +3421,11 @@
         <v>-74947.93036145016</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>52.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3693,17 +3487,11 @@
         <v>-57464.21975402016</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>52.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3769,17 +3553,11 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>52.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3882,17 +3652,11 @@
         <v>-65070.88835402016</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>52.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3921,17 +3685,11 @@
         <v>-65070.88835402016</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3960,17 +3718,11 @@
         <v>-66439.43365402016</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4040,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4077,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4188,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4336,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4484,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4521,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4558,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4669,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4706,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4743,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4780,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4891,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4928,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4965,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5002,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5039,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5113,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5150,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5187,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5298,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5331,16 +4939,14 @@
         <v>-109543.5898540201</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5366,7 +4972,7 @@
         <v>-109543.5898540201</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5399,7 +5005,7 @@
         <v>-125345.8762540201</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5432,7 +5038,7 @@
         <v>-173056.5313540201</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5465,7 +5071,7 @@
         <v>-173056.5313540201</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5498,7 +5104,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5531,7 +5137,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5564,7 +5170,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5696,7 +5302,7 @@
         <v>-83921.90745402014</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5729,7 +5335,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5762,7 +5368,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5795,7 +5401,7 @@
         <v>-139436.7406540201</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5828,7 +5434,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5861,7 +5467,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5894,7 +5500,7 @@
         <v>-135175.8293540201</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5927,7 +5533,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5960,7 +5566,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5993,7 +5599,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6026,7 +5632,7 @@
         <v>-128214.0386540201</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6059,7 +5665,7 @@
         <v>-128204.5386540201</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6092,7 +5698,7 @@
         <v>-135143.3895540201</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6125,7 +5731,7 @@
         <v>-135202.1395540201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6158,7 +5764,7 @@
         <v>-135260.8895540201</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6191,7 +5797,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6224,7 +5830,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6257,7 +5863,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6290,7 +5896,7 @@
         <v>-140463.2158540201</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6323,7 +5929,7 @@
         <v>-146820.3600540201</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6356,7 +5962,7 @@
         <v>-160420.3600540201</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6389,7 +5995,7 @@
         <v>23836.50194597989</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6422,7 +6028,7 @@
         <v>23896.50194597989</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6455,7 +6061,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6488,7 +6094,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6521,7 +6127,7 @@
         <v>23059.14054597989</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6554,7 +6160,7 @@
         <v>286983.7980459799</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6587,7 +6193,7 @@
         <v>225315.9490459799</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6620,7 +6226,7 @@
         <v>226315.9490459799</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6653,7 +6259,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6686,7 +6292,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6719,7 +6325,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6752,7 +6358,7 @@
         <v>216352.7562459799</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6785,7 +6391,7 @@
         <v>215404.8283459799</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6818,7 +6424,7 @@
         <v>177147.9970459799</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6851,7 +6457,7 @@
         <v>177147.9970459799</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6884,7 +6490,7 @@
         <v>177203.5450459799</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6917,7 +6523,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6950,7 +6556,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6983,7 +6589,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7016,7 +6622,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7049,7 +6655,7 @@
         <v>178683.5450459799</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7082,7 +6688,7 @@
         <v>178683.5450459799</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7148,7 +6754,7 @@
         <v>218365.0806459799</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7181,7 +6787,7 @@
         <v>298586.7918459799</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7214,7 +6820,7 @@
         <v>298571.8439459799</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7247,7 +6853,7 @@
         <v>289578.7983459799</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7280,7 +6886,7 @@
         <v>289878.7983459799</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7313,7 +6919,7 @@
         <v>289878.7983459799</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7346,7 +6952,7 @@
         <v>288848.5955459799</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7379,7 +6985,7 @@
         <v>286460.3043459799</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7412,7 +7018,7 @@
         <v>286460.3043459799</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7445,7 +7051,7 @@
         <v>372698.4050459799</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7478,7 +7084,7 @@
         <v>356698.4050459799</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7808,7 +7414,7 @@
         <v>49522.26167975985</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7874,7 +7480,7 @@
         <v>58682.26167975985</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7940,7 +7546,7 @@
         <v>46510.59727975984</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8006,7 +7612,7 @@
         <v>46524.68847975985</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8105,7 +7711,7 @@
         <v>107694.0810797599</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8138,7 +7744,7 @@
         <v>109604.3007797599</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8171,7 +7777,7 @@
         <v>85056.81317975986</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8369,7 +7975,7 @@
         <v>165216.3911797598</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -10283,14 +9889,10 @@
         <v>-28177.24626009009</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="J288" t="n">
-        <v>51.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
@@ -10323,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10359,19 +9955,11 @@
         <v>-12359.27456009009</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="J290" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11225,7 +10813,7 @@
         <v>-56677.04967681008</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11258,7 +10846,7 @@
         <v>-56677.04967681008</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11324,7 +10912,7 @@
         <v>-326098.5820768101</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11357,7 +10945,7 @@
         <v>-767566.2609927601</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11390,7 +10978,7 @@
         <v>-633080.0986927601</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11423,7 +11011,7 @@
         <v>-575848.8296023001</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11489,7 +11077,7 @@
         <v>-533329.2257023001</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11588,7 +11176,7 @@
         <v>-434422.0689023001</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11720,7 +11308,7 @@
         <v>-381997.7674023001</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11753,7 +11341,7 @@
         <v>-381997.7674023001</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11885,7 +11473,7 @@
         <v>-337779.3225240201</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11918,7 +11506,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11951,7 +11539,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11984,7 +11572,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12017,7 +11605,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12050,7 +11638,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12083,7 +11671,7 @@
         <v>-435398.6807240201</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12116,7 +11704,7 @@
         <v>-576644.3454240201</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12149,7 +11737,7 @@
         <v>-657214.6394240201</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12182,7 +11770,7 @@
         <v>-924206.6727240201</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12215,7 +11803,7 @@
         <v>-1070003.20712402</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12248,7 +11836,7 @@
         <v>-1109963.32292402</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12281,7 +11869,7 @@
         <v>-1102942.75622402</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12314,7 +11902,7 @@
         <v>-1102741.09992402</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12347,7 +11935,7 @@
         <v>-1102241.09992402</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12380,7 +11968,7 @@
         <v>-1102180.53974234</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12413,7 +12001,7 @@
         <v>-1102180.53974234</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12446,7 +12034,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12479,7 +12067,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12512,7 +12100,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12545,7 +12133,7 @@
         <v>-1097309.58804234</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12578,7 +12166,7 @@
         <v>-1097309.58804234</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12611,7 +12199,7 @@
         <v>-1117550.30514234</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12644,7 +12232,7 @@
         <v>-1117550.30514234</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12677,7 +12265,7 @@
         <v>-1117962.47764234</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12710,7 +12298,7 @@
         <v>-1117962.47764234</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12743,7 +12331,7 @@
         <v>-1117758.79734234</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12776,7 +12364,7 @@
         <v>-1107786.48554234</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12809,7 +12397,7 @@
         <v>-1301542.97884234</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13898,11 +13486,17 @@
         <v>-1222434.97914461</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>52.39</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13931,11 +13525,17 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>52.46</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13964,11 +13564,17 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>52.37</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13997,11 +13603,17 @@
         <v>-1324434.97914461</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>52.37</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14030,11 +13642,17 @@
         <v>-1307247.96744461</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>52.21</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +13681,17 @@
         <v>-1308110.97934461</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>52.55</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14096,11 +13720,17 @@
         <v>-1294833.91295082</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>52.53</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14129,11 +13759,17 @@
         <v>-1297776.57405082</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>52.65</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14162,11 +13798,17 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>52.64</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14195,11 +13837,17 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>52.65</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14228,11 +13876,17 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>52.65</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14261,11 +13915,17 @@
         <v>-1249012.13575082</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>52.65</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14294,11 +13954,17 @@
         <v>-1248726.97715082</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>52.75</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14331,7 +13997,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14364,7 +14034,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14393,11 +14067,17 @@
         <v>-1254936.45365082</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>52.68</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14426,11 +14106,17 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>52.68</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14459,11 +14145,17 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>52.66</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14492,11 +14184,17 @@
         <v>-983873.0372508203</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>52.66</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14529,7 +14227,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14558,11 +14260,17 @@
         <v>-637162.6339854903</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>52.63</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14595,7 +14303,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14628,7 +14340,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14661,7 +14377,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14694,7 +14414,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14727,7 +14451,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14760,7 +14488,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14793,7 +14525,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14826,7 +14562,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14859,7 +14599,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14892,7 +14636,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14925,7 +14673,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14958,7 +14710,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14991,7 +14747,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15024,7 +14784,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15057,7 +14821,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15090,7 +14858,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +14895,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15156,7 +14932,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15189,7 +14969,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15222,7 +15006,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15255,7 +15043,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15288,7 +15080,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15321,7 +15117,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15354,7 +15154,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15387,7 +15191,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15420,7 +15228,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15453,7 +15265,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15486,7 +15302,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15519,7 +15339,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15548,14 +15372,16 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -15581,7 +15407,7 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15614,7 +15440,7 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15680,7 +15506,7 @@
         <v>-394598.9447089404</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15713,7 +15539,7 @@
         <v>-394598.9447089404</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15746,7 +15572,7 @@
         <v>-459750.3971089404</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15779,7 +15605,7 @@
         <v>-457724.7655089404</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15812,7 +15638,7 @@
         <v>-457724.7655089404</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15845,7 +15671,7 @@
         <v>-463392.2156089404</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15878,7 +15704,7 @@
         <v>-460503.6589089404</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15911,7 +15737,7 @@
         <v>-460503.6589089404</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15944,7 +15770,7 @@
         <v>-593614.8621089404</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15977,7 +15803,7 @@
         <v>-592536.5617089404</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16010,7 +15836,7 @@
         <v>-592536.5617089404</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16043,7 +15869,7 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16076,7 +15902,7 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16109,7 +15935,7 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16142,7 +15968,7 @@
         <v>-618318.1299089404</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16241,7 +16067,7 @@
         <v>-770598.5905089404</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16274,7 +16100,7 @@
         <v>-669200.9249089404</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16307,7 +16133,7 @@
         <v>-670226.2610089404</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16340,7 +16166,7 @@
         <v>-670212.9047089404</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16373,7 +16199,7 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16406,7 +16232,7 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16439,7 +16265,7 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16472,7 +16298,7 @@
         <v>-678466.5646089404</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16505,7 +16331,7 @@
         <v>-678466.5646089404</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16604,7 +16430,7 @@
         <v>-679973.3392089404</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17110,6 +16936,6 @@
       <c r="M494" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ADA.xlsx
+++ b/BackTest/2020-01-23 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>96054.23979999997</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>96054.23979999997</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>134153.46379352</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>129665.70119352</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>131986.00759352</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>56059.98499351996</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>58441.76419351996</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>29989.86999351996</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>18664.76589351996</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>20876.97679351996</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-131709.1248064802</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-135003.2472064802</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-183528.5544064802</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-187762.4595064802</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-158487.0836064802</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-126927.0447064802</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-129675.1260064802</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-104269.7815064802</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-74947.93036145016</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-66193.82326145016</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-57464.21975402016</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-67877.21975402016</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-63702.34305402017</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-50092.17935402016</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-181932.9074540201</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-83921.90745402014</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-139436.7406540201</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-135175.8293540201</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128214.0386540201</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-128204.5386540201</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-135143.3895540201</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-135202.1395540201</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-135260.8895540201</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-140463.2158540201</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-146820.3600540201</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-160420.3600540201</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>23836.50194597989</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>23896.50194597989</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>23059.14054597989</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>286983.7980459799</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>225315.9490459799</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>226315.9490459799</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>216352.7562459799</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>215404.8283459799</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>177147.9970459799</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>177147.9970459799</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>177203.5450459799</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>177183.5450459799</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>178683.5450459799</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>178683.5450459799</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>218365.0806459799</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>298586.7918459799</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>298571.8439459799</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>289578.7983459799</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>289878.7983459799</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>289878.7983459799</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>288848.5955459799</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>286460.3043459799</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>286460.3043459799</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>372698.4050459799</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>356698.4050459799</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>49522.26167975985</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>58682.26167975985</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>46510.59727975984</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>46524.68847975985</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>107694.0810797599</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>109604.3007797599</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>85056.81317975986</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>165216.3911797598</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-326098.5820768101</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-767566.2609927601</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-633080.0986927601</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-575848.8296023001</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-533329.2257023001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-434422.0689023001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-381997.7674023001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-381997.7674023001</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-435398.6807240201</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-576644.3454240201</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-657214.6394240201</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-924206.6727240201</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-1070003.20712402</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1109963.32292402</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1102942.75622402</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-1102741.09992402</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-1102241.09992402</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-1102180.53974234</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-1102180.53974234</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-1126219.35424234</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-1097309.58804234</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-1097309.58804234</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-1117550.30514234</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-1117550.30514234</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1117962.47764234</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-1117962.47764234</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-1117758.79734234</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-1107786.48554234</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-1301542.97884234</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13486,598 +13486,532 @@
         <v>-1222434.97914461</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>52.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="C398" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="D398" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="E398" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="F398" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-1224434.97914461</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="C399" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="D399" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="E399" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1944.0132</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-1224434.97914461</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C400" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="D400" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E400" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="F400" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-1324434.97914461</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="C401" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="D401" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="E401" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="F401" t="n">
+        <v>17187.0117</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-1307247.96744461</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="C402" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="D402" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="E402" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="F402" t="n">
+        <v>863.0119</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-1308110.97934461</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="C403" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D403" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="E403" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="F403" t="n">
+        <v>13277.06639379</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-1294833.91295082</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="C404" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="D404" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="E404" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2942.6611</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-1297776.57405082</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="C405" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D405" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="E405" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="F405" t="n">
+        <v>46461.1924</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-1251315.38165082</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="C406" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D406" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="E406" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="F406" t="n">
+        <v>53194.4575</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-1251315.38165082</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="C407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="D407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="E407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="F407" t="n">
+        <v>15801.84236268</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-1251315.38165082</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="J407" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="C408" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="D408" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="E408" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="F408" t="n">
+        <v>2303.2459</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-1249012.13575082</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="J408" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="C409" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="D409" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="E409" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="F409" t="n">
+        <v>285.1586</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-1248726.97715082</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>52.75</v>
+      </c>
+      <c r="J409" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="C410" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="D410" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="E410" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="F410" t="n">
+        <v>88.2591</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-1248726.97715082</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="C411" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="D411" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="E411" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="F411" t="n">
+        <v>6209.4765</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-1254936.45365082</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="C412" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="D412" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="E412" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="F412" t="n">
+        <v>8566.974099999999</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-1254936.45365082</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="C398" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="D398" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="E398" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="F398" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-1224434.97914461</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>52.46</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="C399" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="D399" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="E399" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="F399" t="n">
-        <v>1944.0132</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-1224434.97914461</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="C400" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="D400" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="E400" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="F400" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-1324434.97914461</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>52.37</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="C401" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="D401" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="E401" t="n">
-        <v>52.52</v>
-      </c>
-      <c r="F401" t="n">
-        <v>17187.0117</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-1307247.96744461</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>52.21</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="C402" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="D402" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="E402" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="F402" t="n">
-        <v>863.0119</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-1308110.97934461</v>
-      </c>
-      <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>52.55</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="C403" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D403" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="E403" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="F403" t="n">
-        <v>13277.06639379</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-1294833.91295082</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="C404" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="D404" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="E404" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="F404" t="n">
-        <v>2942.6611</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-1297776.57405082</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="C405" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D405" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="E405" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="F405" t="n">
-        <v>46461.1924</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-1251315.38165082</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>52.64</v>
-      </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="C406" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D406" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="E406" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="F406" t="n">
-        <v>53194.4575</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-1251315.38165082</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="C407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="D407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="E407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="F407" t="n">
-        <v>15801.84236268</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-1251315.38165082</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>52.75</v>
-      </c>
-      <c r="C408" t="n">
-        <v>52.75</v>
-      </c>
-      <c r="D408" t="n">
-        <v>52.75</v>
-      </c>
-      <c r="E408" t="n">
-        <v>52.75</v>
-      </c>
-      <c r="F408" t="n">
-        <v>2303.2459</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-1249012.13575082</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="C409" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="D409" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="E409" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="F409" t="n">
-        <v>285.1586</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-1248726.97715082</v>
-      </c>
-      <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>52.75</v>
-      </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="C410" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="D410" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="E410" t="n">
-        <v>52.77</v>
-      </c>
-      <c r="F410" t="n">
-        <v>88.2591</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-1248726.97715082</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="C411" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="D411" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="E411" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="F411" t="n">
-        <v>6209.4765</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-1254936.45365082</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>52.58</v>
-      </c>
-      <c r="C412" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="D412" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="E412" t="n">
-        <v>52.58</v>
-      </c>
-      <c r="F412" t="n">
-        <v>8566.974099999999</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-1254936.45365082</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>52.68</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14106,11 +14040,9 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>52.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14145,11 +14077,9 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>52.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14184,11 +14114,9 @@
         <v>-983873.0372508203</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>52.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14260,11 +14188,9 @@
         <v>-637162.6339854903</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>52.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15372,16 +15298,18 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -15407,11 +15335,15 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15440,11 +15372,15 @@
         <v>-202869.9931089404</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15477,7 +15413,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15506,11 +15446,15 @@
         <v>-394598.9447089404</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15539,11 +15483,15 @@
         <v>-394598.9447089404</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +15520,15 @@
         <v>-459750.3971089404</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15605,11 +15557,15 @@
         <v>-457724.7655089404</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15638,11 +15594,15 @@
         <v>-457724.7655089404</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15671,11 +15631,15 @@
         <v>-463392.2156089404</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15704,11 +15668,15 @@
         <v>-460503.6589089404</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15737,11 +15705,15 @@
         <v>-460503.6589089404</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15770,11 +15742,15 @@
         <v>-593614.8621089404</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +15779,15 @@
         <v>-592536.5617089404</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15836,11 +15816,15 @@
         <v>-592536.5617089404</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15869,11 +15853,15 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15902,11 +15890,15 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15935,11 +15927,15 @@
         <v>-622143.9818089404</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15968,11 +15964,15 @@
         <v>-618318.1299089404</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16005,7 +16005,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16038,7 +16042,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16067,11 +16075,15 @@
         <v>-770598.5905089404</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16100,11 +16112,15 @@
         <v>-669200.9249089404</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +16149,15 @@
         <v>-670226.2610089404</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16166,11 +16186,15 @@
         <v>-670212.9047089404</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16199,11 +16223,15 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16232,11 +16260,15 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16265,11 +16297,15 @@
         <v>-704571.0020089404</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16298,11 +16334,15 @@
         <v>-678466.5646089404</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16331,11 +16371,15 @@
         <v>-678466.5646089404</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16368,7 +16412,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16401,7 +16449,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16430,11 +16482,15 @@
         <v>-679973.3392089404</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16467,7 +16523,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16500,7 +16560,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16533,7 +16597,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16566,7 +16634,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16599,7 +16671,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16632,7 +16708,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16665,7 +16745,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16698,7 +16782,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16731,7 +16819,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16764,7 +16856,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16797,7 +16893,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16830,7 +16930,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16863,7 +16967,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16896,7 +17004,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16929,13 +17041,17 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
       <c r="M494" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ADA.xlsx
+++ b/BackTest/2020-01-23 BackTest ADA.xlsx
@@ -2761,7 +2761,7 @@
         <v>-131709.1248064802</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-135003.2472064802</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-183528.5544064802</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-187762.4595064802</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-158487.0836064802</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-141387.0836064802</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-126927.0447064802</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-129675.1260064802</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-104269.7815064802</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-74947.93036145016</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-66193.82326145016</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-57464.21975402016</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-67877.21975402016</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-103295.5134540202</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-63702.34305402017</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-65359.43365402016</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-44594.01405402016</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-50092.17935402016</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-133921.9074540201</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-83921.90745402014</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-83621.90745402014</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-139436.7406540201</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-140949.0156540201</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-135175.8293540201</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-179945.5920540201</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-128214.0386540201</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-128204.5386540201</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-135143.3895540201</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-135202.1395540201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-135260.8895540201</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-126979.0686540201</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-140463.2158540201</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-146820.3600540201</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-160420.3600540201</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>23836.50194597989</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>23896.50194597989</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>23921.50194597989</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>23059.14054597989</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>225315.9490459799</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>226315.9490459799</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>226352.7562459799</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>216352.7562459799</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>215404.8283459799</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-429909.7749240201</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-435398.6807240201</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-576644.3454240201</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-657214.6394240201</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13057,10 +13057,14 @@
         <v>-1239644.36934129</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="J384" t="n">
+        <v>52.53</v>
+      </c>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
@@ -13093,8 +13097,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,10 +13172,14 @@
         <v>-1170101.07544129</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="J387" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
@@ -13189,11 +13209,19 @@
         <v>-1170091.07544129</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="J388" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13253,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13292,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13331,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +13370,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13409,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13445,19 @@
         <v>-1295703.91674295</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J394" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13486,19 @@
         <v>-1277410.70954461</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="J395" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13527,19 @@
         <v>-1277733.00954461</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J396" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13568,19 @@
         <v>-1222434.97914461</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="J397" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13609,19 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>52.46</v>
+      </c>
+      <c r="J398" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13650,19 @@
         <v>-1224434.97914461</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="J399" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13691,19 @@
         <v>-1324434.97914461</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>52.37</v>
+      </c>
+      <c r="J400" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13732,19 @@
         <v>-1307247.96744461</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>52.21</v>
+      </c>
+      <c r="J401" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13773,19 @@
         <v>-1308110.97934461</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="J402" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13814,19 @@
         <v>-1294833.91295082</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="J403" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13855,19 @@
         <v>-1297776.57405082</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="J404" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13896,19 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="J405" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13937,19 @@
         <v>-1251315.38165082</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="J406" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13822,9 +13984,13 @@
         <v>52.65</v>
       </c>
       <c r="J407" t="n">
-        <v>52.65</v>
-      </c>
-      <c r="K407" t="inlineStr"/>
+        <v>52.78</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13859,11 +14025,11 @@
         <v>52.65</v>
       </c>
       <c r="J408" t="n">
-        <v>52.65</v>
+        <v>52.78</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L408" t="n">
@@ -13900,11 +14066,11 @@
         <v>52.75</v>
       </c>
       <c r="J409" t="n">
-        <v>52.65</v>
+        <v>52.78</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -13935,11 +14101,19 @@
         <v>-1248726.97715082</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="J410" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13968,11 +14142,19 @@
         <v>-1254936.45365082</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>52.77</v>
+      </c>
+      <c r="J411" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14006,10 +14188,12 @@
       <c r="I412" t="n">
         <v>52.68</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L412" t="n">
@@ -14040,10 +14224,14 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="J413" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,10 +14265,14 @@
         <v>-1267213.79905082</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="J414" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14114,10 +14306,14 @@
         <v>-983873.0372508203</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>52.66</v>
+      </c>
+      <c r="J415" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,10 +14347,14 @@
         <v>-1023873.03725082</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="J416" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14188,10 +14388,14 @@
         <v>-637162.6339854903</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>52.63</v>
+      </c>
+      <c r="J417" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14225,10 +14429,14 @@
         <v>-639052.0907854903</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>53</v>
+      </c>
+      <c r="J418" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14262,10 +14470,14 @@
         <v>-638951.4679089404</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J419" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,10 +14511,14 @@
         <v>-758407.6260089404</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="J420" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,7 +14555,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,7 +14594,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14413,7 +14633,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14450,7 +14672,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,7 +14711,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14524,7 +14750,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,7 +14789,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,7 +14828,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14635,7 +14867,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,7 +14906,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,7 +14945,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14746,7 +14984,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14783,7 +15023,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14820,7 +15062,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,7 +15101,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,7 +15140,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14931,7 +15179,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14968,7 +15218,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15005,7 +15257,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,7 +15296,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,7 +15335,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15116,7 +15374,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15153,7 +15413,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15190,7 +15452,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15227,7 +15491,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15264,7 +15530,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,7 +15569,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15338,7 +15608,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15375,7 +15647,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,7 +15686,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15449,7 +15725,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15486,7 +15764,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15523,7 +15803,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15560,7 +15842,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,7 +15881,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15634,7 +15920,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15671,7 +15959,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15708,7 +15998,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,7 +16037,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15782,7 +16076,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15819,7 +16115,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15856,7 +16154,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15893,7 +16193,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15930,7 +16232,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15967,7 +16271,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16004,7 +16310,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16041,7 +16349,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16078,7 +16388,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16115,7 +16427,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16152,7 +16466,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16189,7 +16505,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16226,7 +16544,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16263,7 +16583,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16300,7 +16622,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16337,7 +16661,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,7 +16700,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16411,7 +16739,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16448,7 +16778,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16485,7 +16817,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16522,7 +16856,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16559,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16596,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16633,7 +16973,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16670,7 +17012,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16707,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16744,7 +17090,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16781,7 +17129,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16818,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,7 +17207,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16892,7 +17246,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16929,7 +17285,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16966,7 +17324,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17003,7 +17363,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,7 +17402,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>52.78</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
